--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A28E8-2473-48A1-A48B-C4ECF2F47BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C102E5-D745-4C22-8245-EFA435B40A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="118">
   <si>
     <t>Email</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>lily.pham17@mailsac.com</t>
+  </si>
+  <si>
+    <t>vy.nguyen.1@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -976,6 +979,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,7 +998,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1353,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C717B-F1EB-455D-B109-71C9942E3E0E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1395,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1406,7 +1409,7 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1418,7 +1421,7 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1426,7 +1429,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1438,7 +1441,7 @@
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1450,7 +1453,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1467,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1476,7 +1479,7 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1486,7 +1489,7 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1496,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1508,7 +1511,7 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1520,7 +1523,7 @@
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1534,7 +1537,7 @@
       <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1544,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1554,7 +1557,7 @@
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1564,7 +1567,7 @@
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -1609,10 +1612,18 @@
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1632,11 +1643,12 @@
     <hyperlink ref="C9" r:id="rId3" xr:uid="{F4C221DA-E540-4F9C-8086-44931846D68C}"/>
     <hyperlink ref="B20" r:id="rId4" xr:uid="{467D1F2F-3AC1-4DB0-81F7-1E7569791FD2}"/>
     <hyperlink ref="C20" r:id="rId5" xr:uid="{22A27956-90B3-41B9-80EB-13613490FEE6}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{13DA61B5-E342-4D7C-BBB8-5F8A9AC69776}"/>
-    <hyperlink ref="B21" r:id="rId7" xr:uid="{0BE843A8-22DE-4EEF-8C69-E9C370661F31}"/>
+    <hyperlink ref="C21" r:id="rId6" display="mailto:Tuongvy@10" xr:uid="{67811377-A93B-414A-B328-272E65B7817B}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{BE93581C-516C-41D6-A5E4-D4EB4E017AF1}"/>
+    <hyperlink ref="C22" r:id="rId8" display="mailto:Tuongvy@10" xr:uid="{16B02F66-52EC-4FB6-B958-ABBBA3410ABF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1644,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1693,7 +1705,7 @@
       <c r="C2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -1702,7 +1714,7 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1725,7 +1737,7 @@
       <c r="F3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1740,7 +1752,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1755,7 +1767,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -1770,7 +1782,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1785,7 +1797,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1798,7 +1810,7 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1821,7 +1833,7 @@
       <c r="F9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1834,7 +1846,7 @@
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -1855,7 +1867,7 @@
       <c r="F11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1868,7 +1880,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1887,7 +1899,7 @@
       <c r="F13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1900,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1915,7 +1927,7 @@
         <v>98</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -1936,7 +1948,7 @@
       <c r="F16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -1955,7 +1967,7 @@
       <c r="F17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -1976,7 +1988,7 @@
       <c r="F18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1995,7 +2007,7 @@
       <c r="F19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -2010,7 +2022,7 @@
       <c r="F20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="21" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2027,7 +2039,7 @@
       <c r="F21" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -2040,7 +2052,7 @@
         <v>113</v>
       </c>
       <c r="F22" s="14"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -2053,7 +2065,7 @@
         <v>113</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">

--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C102E5-D745-4C22-8245-EFA435B40A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B726D61-3C9B-4858-BD20-9908852A87F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="2" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C717B-F1EB-455D-B109-71C9942E3E0E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B726D61-3C9B-4858-BD20-9908852A87F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448079CE-4528-4C81-9A19-A73F17404E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="117">
   <si>
     <t>Email</t>
   </si>
@@ -108,9 +108,6 @@
     <t>IR-260</t>
   </si>
   <si>
-    <t>lily.pham12@mailsac.com</t>
-  </si>
-  <si>
     <t>Lily@1235</t>
   </si>
   <si>
@@ -330,21 +327,12 @@
     <t>ngan.ltk27+3@qa.team</t>
   </si>
   <si>
-    <t xml:space="preserve">Mark </t>
-  </si>
-  <si>
     <t>IR-281</t>
   </si>
   <si>
-    <t> Lily</t>
-  </si>
-  <si>
     <t>lily.pham@1234</t>
   </si>
   <si>
-    <t>Baa123</t>
-  </si>
-  <si>
     <t>IR-284</t>
   </si>
   <si>
@@ -372,10 +360,19 @@
     <t>Confirm Pass</t>
   </si>
   <si>
-    <t>lily.pham17@mailsac.com</t>
-  </si>
-  <si>
     <t>vy.nguyen.1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>Pa1@</t>
+  </si>
+  <si>
+    <t>lily.pham18@mailsac.com</t>
+  </si>
+  <si>
+    <t>lily.pham123@mailsac.com</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C717B-F1EB-455D-B109-71C9942E3E0E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,12 +1379,12 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -1396,12 +1393,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1425,7 +1422,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1433,13 +1430,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D6" s="18"/>
     </row>
@@ -1505,8 +1502,8 @@
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+      <c r="B12" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -1535,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="20"/>
     </row>
@@ -1580,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,37 +1591,37 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,9 +1643,10 @@
     <hyperlink ref="C21" r:id="rId6" display="mailto:Tuongvy@10" xr:uid="{67811377-A93B-414A-B328-272E65B7817B}"/>
     <hyperlink ref="B22" r:id="rId7" xr:uid="{BE93581C-516C-41D6-A5E4-D4EB4E017AF1}"/>
     <hyperlink ref="C22" r:id="rId8" display="mailto:Tuongvy@10" xr:uid="{16B02F66-52EC-4FB6-B958-ABBBA3410ABF}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{5C21EC60-BC48-489A-9D12-71ADD3947217}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1656,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1672,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -1692,21 +1690,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>10</v>
@@ -1715,18 +1713,18 @@
         <v>10</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>9</v>
@@ -1741,13 +1739,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1756,13 +1754,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="14">
         <v>123456</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1771,13 +1769,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1786,13 +1784,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1801,12 +1799,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1816,28 +1814,28 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1850,33 +1848,33 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1884,13 +1882,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
@@ -1903,7 +1901,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1918,47 +1916,45 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16"/>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>9</v>
@@ -1971,34 +1967,34 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>9</v>
@@ -2011,590 +2007,590 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2647,114 +2643,114 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448079CE-4528-4C81-9A19-A73F17404E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF30A8-118E-4ADE-8E1F-41FE4BAB8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="119">
   <si>
     <t>Email</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>lily.pham123@mailsac.com</t>
+  </si>
+  <si>
+    <t>IR-461</t>
+  </si>
+  <si>
+    <t>lily.co..lins@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -912,6 +918,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -958,7 +1001,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
@@ -976,7 +1019,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,6 +1037,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1353,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C717B-F1EB-455D-B109-71C9942E3E0E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1392,7 +1442,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1406,7 +1456,7 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1418,7 +1468,7 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1426,7 +1476,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1438,7 +1488,7 @@
       <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1450,7 +1500,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1514,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1476,7 +1526,7 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1486,7 +1536,7 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1496,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1508,7 +1558,7 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1520,7 +1570,7 @@
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1534,7 +1584,7 @@
       <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1544,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1554,7 +1604,7 @@
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1564,7 +1614,7 @@
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -1652,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1693,26 +1743,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1735,7 +1785,9 @@
       <c r="F3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1750,7 +1802,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1765,7 +1817,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -1780,7 +1832,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1795,7 +1847,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1808,7 +1860,7 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1831,7 +1883,7 @@
       <c r="F9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1844,7 +1896,7 @@
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -1865,7 +1917,7 @@
       <c r="F11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1878,96 +1930,90 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="21" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>7</v>
@@ -1976,97 +2022,111 @@
         <v>68</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -2593,12 +2653,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G3:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -2606,13 +2671,14 @@
     <hyperlink ref="D11" r:id="rId2" xr:uid="{648D872C-6844-4865-9C7E-C8C93DE5AC7C}"/>
     <hyperlink ref="F11" r:id="rId3" xr:uid="{D59C1A98-E052-40C4-9B94-F5494BFB2B84}"/>
     <hyperlink ref="D12" r:id="rId4" xr:uid="{5C8032BD-6545-4747-9A01-B1736FDBA827}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{527970C4-AABA-4A7C-93FB-8BBF431551BE}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{4CE6794F-0AFC-4183-B400-B6237C1A0E84}"/>
-    <hyperlink ref="F20" r:id="rId7" xr:uid="{769F6BE5-0283-4ED8-B54F-6197342D1814}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{A38092D2-56F4-41E3-9ADB-B2692E6D6FF9}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{4CE6794F-0AFC-4183-B400-B6237C1A0E84}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{769F6BE5-0283-4ED8-B54F-6197342D1814}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{A38092D2-56F4-41E3-9ADB-B2692E6D6FF9}"/>
+    <hyperlink ref="F13" r:id="rId8" xr:uid="{82E52024-4646-41E5-81CD-F56CAF8F302D}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{0AC2CB26-0AA2-480A-A560-6B1A82E9D865}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF30A8-118E-4ADE-8E1F-41FE4BAB8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F226990C-5449-45AA-AD17-A4EC9C0787DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="90">
   <si>
     <t>Email</t>
   </si>
@@ -216,78 +216,30 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Lily Smart</t>
-  </si>
-  <si>
     <t>IR-</t>
   </si>
   <si>
-    <t>IR-151</t>
-  </si>
-  <si>
     <t>IR-29</t>
   </si>
   <si>
     <t>Pham</t>
   </si>
   <si>
-    <t>IR-149</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P </t>
-  </si>
-  <si>
-    <t>@#^%$#</t>
-  </si>
-  <si>
-    <t>IR-32</t>
-  </si>
-  <si>
-    <t>abcdacgfdyngnaa</t>
-  </si>
-  <si>
-    <t>fdfgsgsfgdfgdhg</t>
-  </si>
-  <si>
-    <t>IR-271</t>
-  </si>
-  <si>
-    <t>IR-272</t>
-  </si>
-  <si>
-    <t>Hahdgfrthjjhjtqa</t>
-  </si>
-  <si>
     <t>First and Last name</t>
   </si>
   <si>
-    <t>IR-35</t>
-  </si>
-  <si>
-    <t>john.doe@smart dev.com</t>
-  </si>
-  <si>
     <t>Nale</t>
   </si>
   <si>
     <t>Halen</t>
   </si>
   <si>
-    <t>nganltk27@qa.team </t>
-  </si>
-  <si>
     <t>Na@12345</t>
   </si>
   <si>
     <t>IR-34</t>
   </si>
   <si>
-    <t>IR-33</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -303,42 +255,12 @@
     <t>IR-154</t>
   </si>
   <si>
-    <t>IR-153</t>
-  </si>
-  <si>
-    <t>john.doe@smartdev.com@</t>
-  </si>
-  <si>
-    <t>IR-278</t>
-  </si>
-  <si>
-    <t>IR-37</t>
-  </si>
-  <si>
     <t>hellopassword</t>
   </si>
   <si>
-    <t>IR-36</t>
-  </si>
-  <si>
-    <t>IR-279</t>
-  </si>
-  <si>
-    <t>ngan.ltk27+3@qa.team</t>
-  </si>
-  <si>
     <t>IR-281</t>
   </si>
   <si>
-    <t>lily.pham@1234</t>
-  </si>
-  <si>
-    <t>IR-284</t>
-  </si>
-  <si>
-    <t>IR-286</t>
-  </si>
-  <si>
     <t>IR-457</t>
   </si>
   <si>
@@ -363,22 +285,13 @@
     <t>vy.nguyen.1@yopmail.com</t>
   </si>
   <si>
-    <t>Password123</t>
-  </si>
-  <si>
-    <t>Pa1@</t>
-  </si>
-  <si>
-    <t>lily.pham18@mailsac.com</t>
-  </si>
-  <si>
     <t>lily.pham123@mailsac.com</t>
   </si>
   <si>
-    <t>IR-461</t>
-  </si>
-  <si>
-    <t>lily.co..lins@yopmail.com</t>
+    <t>nganltk27@qa.team</t>
+  </si>
+  <si>
+    <t>lily.pham32@mailsac.com</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
@@ -1019,6 +932,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,14 +964,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1442,7 +1361,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1456,7 +1375,7 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1468,7 +1387,7 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1476,7 +1395,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="17"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1488,7 +1407,7 @@
       <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1500,7 +1419,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="26" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1514,7 +1433,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1526,7 +1445,7 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1536,7 +1455,7 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1546,19 +1465,19 @@
         <v>26</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1570,7 +1489,7 @@
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="27" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1584,7 +1503,7 @@
       <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1594,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1604,7 +1523,7 @@
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1614,7 +1533,7 @@
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -1660,7 +1579,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1702,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1744,941 +1663,695 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="14">
-        <v>123456</v>
+        <v>78</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="21"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="21"/>
+      <c r="A11" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="21"/>
+      <c r="A13" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="20" t="s">
-        <v>3</v>
+      <c r="A15" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G8:G14"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G3:G7"/>
+  <mergeCells count="1">
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{2C8C5204-F23D-4688-A6A7-9C0CE83498ED}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{648D872C-6844-4865-9C7E-C8C93DE5AC7C}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{D59C1A98-E052-40C4-9B94-F5494BFB2B84}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{5C8032BD-6545-4747-9A01-B1736FDBA827}"/>
-    <hyperlink ref="D20" r:id="rId5" xr:uid="{4CE6794F-0AFC-4183-B400-B6237C1A0E84}"/>
-    <hyperlink ref="F21" r:id="rId6" xr:uid="{769F6BE5-0283-4ED8-B54F-6197342D1814}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{A38092D2-56F4-41E3-9ADB-B2692E6D6FF9}"/>
-    <hyperlink ref="F13" r:id="rId8" xr:uid="{82E52024-4646-41E5-81CD-F56CAF8F302D}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{0AC2CB26-0AA2-480A-A560-6B1A82E9D865}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{2C8C5204-F23D-4688-A6A7-9C0CE83498ED}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{648D872C-6844-4865-9C7E-C8C93DE5AC7C}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{D59C1A98-E052-40C4-9B94-F5494BFB2B84}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{769F6BE5-0283-4ED8-B54F-6197342D1814}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{A38092D2-56F4-41E3-9ADB-B2692E6D6FF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
